--- a/medicine/Sexualité et sexologie/Si_tous_les_hommes_étaient_frères,_me_permettrais-tu_d'épouser_ta_sœur__/Si_tous_les_hommes_étaient_frères,_me_permettrais-tu_d'épouser_ta_sœur__.xlsx
+++ b/medicine/Sexualité et sexologie/Si_tous_les_hommes_étaient_frères,_me_permettrais-tu_d'épouser_ta_sœur__/Si_tous_les_hommes_étaient_frères,_me_permettrais-tu_d'épouser_ta_sœur__.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Si_tous_les_hommes_%C3%A9taient_fr%C3%A8res,_me_permettrais-tu_d%27%C3%A9pouser_ta_s%C5%93ur_%3F</t>
+          <t>Si_tous_les_hommes_étaient_frères,_me_permettrais-tu_d'épouser_ta_sœur_?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Si tous les hommes étaient frères, me permettrais-tu d'épouser ta sœur ? (titre original : If All Men Were Brothers, Would You Let One Marry Your Sister ?) est une nouvelle de science-fiction de Theodore Sturgeon parue en 1967.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Si_tous_les_hommes_%C3%A9taient_fr%C3%A8res,_me_permettrais-tu_d%27%C3%A9pouser_ta_s%C5%93ur_%3F</t>
+          <t>Si_tous_les_hommes_étaient_frères,_me_permettrais-tu_d'épouser_ta_sœur_?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,20 +528,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Parutions aux États-Unis
-La nouvelle est parue initialement en 1967 aux États-Unis dans le recueil Dangerous Visions[1].
-Parutions en France
-La nouvelle a été publiée en France en 1975 dans Dangereuses Visions, tome 2, éditions J'ai lu : p. 119 à 122 (introduction d'Harlan Ellison), p. 122 à 174 (nouvelle) et p. 174 à 178 (postface de l'auteur).
-Ultérieurement, elle a été publiée dans l'anthologie « Theodore Sturgeon - Romans et nouvelles », éditions Omnibus, septembre 2005[2].
-Publications dans d'autres pays occidentaux
-La nouvelle est parue :
-en Allemagne :
-sous le titre Die Ausgestoßenen (1970)[3] ;
-sous le titre Nach dem Exodus (1976)[4] ;
-sous le titre Wenn alle Menschen Brüder wären, würdest du einen davon deine Schwester heiraten lassen ? (1976)[5] ;
-au Portugal sous le titre Se todos os homens fossem irmãos deixarias que um se casasse com a tua irmã ? (1984)[6] ;
-en Serbie sous le titre Kada bi svu muškarci bili braća, da li bi nekome od njih dao sestru za ženu ? (1986)[7] ;
-en Roumanie sous le titre Dacă toți bărbații ar fi frați, l-ai lăsa pe unul să se-nsoare cu sora ta ? (2013)[8].</t>
+          <t>Parutions aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nouvelle est parue initialement en 1967 aux États-Unis dans le recueil Dangerous Visions.
+</t>
         </is>
       </c>
     </row>
@@ -539,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Si_tous_les_hommes_%C3%A9taient_fr%C3%A8res,_me_permettrais-tu_d%27%C3%A9pouser_ta_s%C5%93ur_%3F</t>
+          <t>Si_tous_les_hommes_étaient_frères,_me_permettrais-tu_d'épouser_ta_sœur_?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,10 +560,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Parutions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parutions en France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nouvelle a été publiée en France en 1975 dans Dangereuses Visions, tome 2, éditions J'ai lu : p. 119 à 122 (introduction d'Harlan Ellison), p. 122 à 174 (nouvelle) et p. 174 à 178 (postface de l'auteur).
+Ultérieurement, elle a été publiée dans l'anthologie « Theodore Sturgeon - Romans et nouvelles », éditions Omnibus, septembre 2005.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Si_tous_les_hommes_étaient_frères,_me_permettrais-tu_d'épouser_ta_sœur_?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Si_tous_les_hommes_%C3%A9taient_fr%C3%A8res,_me_permettrais-tu_d%27%C3%A9pouser_ta_s%C5%93ur_%3F</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Parutions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publications dans d'autres pays occidentaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La nouvelle est parue :
+en Allemagne :
+sous le titre Die Ausgestoßenen (1970) ;
+sous le titre Nach dem Exodus (1976) ;
+sous le titre Wenn alle Menschen Brüder wären, würdest du einen davon deine Schwester heiraten lassen ? (1976) ;
+au Portugal sous le titre Se todos os homens fossem irmãos deixarias que um se casasse com a tua irmã ? (1984) ;
+en Serbie sous le titre Kada bi svu muškarci bili braća, da li bi nekome od njih dao sestru za ženu ? (1986) ;
+en Roumanie sous le titre Dacă toți bărbații ar fi frați, l-ai lăsa pe unul să se-nsoare cu sora ta ? (2013).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Si_tous_les_hommes_étaient_frères,_me_permettrais-tu_d'épouser_ta_sœur_?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Si_tous_les_hommes_%C3%A9taient_fr%C3%A8res,_me_permettrais-tu_d%27%C3%A9pouser_ta_s%C5%93ur_%3F</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps après que la Terre eut disparu après que le Soleil fut devenu supernova, et alors que l'espèce humaine a essaimé dans la galaxie grâce au bond quantique permettant d'atteindre n'importe quel endroit voulu, Charli Bux va rendre visite à un haut fonctionnaire, le Maître des Archives, pour lui parler de la planète Vexvelt.
 L'entretien commence. Charli Bux explique à la suite de quelles circonstances il a été amené à entendre parler de cette planète. Pris de curiosité par le fait que cette planète n'était recensée sur aucune carte galactique et que l'on ignorait ses coordonnées exactes et les moyens de s'y rendre, Charli a dépensé toutes ses économies pour avoir la certitude que cette planète existait bien, et pour déterminer un moyen de s'y rendre. Après des aventures picaresques, il était enfin arrivé sur cette planète, ayant pris place à bord du vaisseau spatial de Vorhidin, un Vexveltien d'environ 50 ans, et sa compagne Tamba, plus jeune que lui. Durant le voyage en temps « réel », il avait pu constater que le couple passait son temps à faire l’amour et que Vorhidin et Tamba vivaient nus dans le vaisseau.
@@ -567,33 +656,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Si_tous_les_hommes_%C3%A9taient_fr%C3%A8res,_me_permettrais-tu_d%27%C3%A9pouser_ta_s%C5%93ur_%3F</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Si_tous_les_hommes_étaient_frères,_me_permettrais-tu_d'épouser_ta_sœur_?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Sexualité et sexologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Si_tous_les_hommes_%C3%A9taient_fr%C3%A8res,_me_permettrais-tu_d%27%C3%A9pouser_ta_s%C5%93ur_%3F</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nouvelle a été proposée au Prix Nebula du meilleur roman court 1968 et y a été classé 3e[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nouvelle a été proposée au Prix Nebula du meilleur roman court 1968 et y a été classé 3e.
 </t>
         </is>
       </c>
